--- a/Resources/Outdoor.xlsx
+++ b/Resources/Outdoor.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72DB2B2-5748-423C-AAC7-99FE496F69F9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C3E5B-124D-4093-BA6E-FBF096C4F432}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,9 +366,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -401,6 +406,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>